--- a/src/test/resources/ClinicAdmin_TestData/Watts Health Center/Doctor-details.xlsx
+++ b/src/test/resources/ClinicAdmin_TestData/Watts Health Center/Doctor-details.xlsx
@@ -1,21 +1,301 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Doctordetails" sheetId="1" r:id="rId1"/>
+    <sheet name="Doctor-personaldetails" sheetId="3" r:id="rId2"/>
+    <sheet name="Appointments" sheetId="2" r:id="rId3"/>
+    <sheet name="MedicalRecord" sheetId="4" r:id="rId4"/>
+    <sheet name="MedicalTreatments" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
+  <si>
+    <t>Doctor ID</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Speciality</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>DoctorName</t>
+  </si>
+  <si>
+    <t>Dr. Eritriya Drud</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Physiotherapist</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>AppointmentDate</t>
+  </si>
+  <si>
+    <t>Time zone</t>
+  </si>
+  <si>
+    <t>Appointment ID</t>
+  </si>
+  <si>
+    <t>Date of appointment</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Patient Name</t>
+  </si>
+  <si>
+    <t>Clinic</t>
+  </si>
+  <si>
+    <t>Chief Complaint</t>
+  </si>
+  <si>
+    <t>Followup complaints</t>
+  </si>
+  <si>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>Oct 7, 2020</t>
+  </si>
+  <si>
+    <t>Asia/Kolkata</t>
+  </si>
+  <si>
+    <t>Oct 7, 2020 08:00 PM</t>
+  </si>
+  <si>
+    <t>Online Consultation</t>
+  </si>
+  <si>
+    <t>Sandhiya San</t>
+  </si>
+  <si>
+    <t>Watts Health Center</t>
+  </si>
+  <si>
+    <t>8pm</t>
+  </si>
+  <si>
+    <t>Oct 9, 2020</t>
+  </si>
+  <si>
+    <t>Oct 9, 2020 06:30 PM</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Oct 10, 2020</t>
+  </si>
+  <si>
+    <t>Oct 10, 2020 10:00 AM</t>
+  </si>
+  <si>
+    <t>General appointment</t>
+  </si>
+  <si>
+    <t>Oct 17, 2020</t>
+  </si>
+  <si>
+    <t>Oct 17, 2020 11:00 AM</t>
+  </si>
+  <si>
+    <t>Followup-General appointment</t>
+  </si>
+  <si>
+    <t>Followup comment and fee-1000</t>
+  </si>
+  <si>
+    <t>Oct 18, 2020</t>
+  </si>
+  <si>
+    <t>Oct 18, 2020 01:30 PM</t>
+  </si>
+  <si>
+    <t>Clinic Visit</t>
+  </si>
+  <si>
+    <t>Wilson s</t>
+  </si>
+  <si>
+    <t>DoctorID</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>LicenseNo</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Dr. Eritriya</t>
+  </si>
+  <si>
+    <t>eritriya@doctor.com</t>
+  </si>
+  <si>
+    <t>MBBS</t>
+  </si>
+  <si>
+    <t>Drud</t>
+  </si>
+  <si>
+    <t>LASD0023D</t>
+  </si>
+  <si>
+    <t>2 Years</t>
+  </si>
+  <si>
+    <t>AboutMe</t>
+  </si>
+  <si>
+    <t>2 years of experience</t>
+  </si>
+  <si>
+    <t>Report_name</t>
+  </si>
+  <si>
+    <t>Report_description</t>
+  </si>
+  <si>
+    <t>JPG-5MB.jpg</t>
+  </si>
+  <si>
+    <t>JPG-1MB.jpg,                                       JPG-5MB.jpg, 
+New Microsoft Excel Worksheet.xlsx</t>
+  </si>
+  <si>
+    <t>test,                                                  12,                                                    excel</t>
+  </si>
+  <si>
+    <t>No Documents uploaded</t>
+  </si>
+  <si>
+    <t>Clinical Note</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>Drug Name</t>
+  </si>
+  <si>
+    <t>Dosage</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Before/After</t>
+  </si>
+  <si>
+    <t>ClinicalNote:Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
+  </si>
+  <si>
+    <t>Observation :Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
+  </si>
+  <si>
+    <t>Diagnosis :Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
+  </si>
+  <si>
+    <t>Drug001/Drug002</t>
+  </si>
+  <si>
+    <t>100 ml/10 mg</t>
+  </si>
+  <si>
+    <t>1-1-1/ 1-0-0</t>
+  </si>
+  <si>
+    <t>5 Days/10 Days</t>
+  </si>
+  <si>
+    <t>After Food/ Before Food</t>
+  </si>
+  <si>
+    <t>No Clinical Note</t>
+  </si>
+  <si>
+    <t>No Observation</t>
+  </si>
+  <si>
+    <t>No Diagnosis</t>
+  </si>
+  <si>
+    <t>Drug-005</t>
+  </si>
+  <si>
+    <t>10 mg</t>
+  </si>
+  <si>
+    <t>0-0-1</t>
+  </si>
+  <si>
+    <t>20 Days</t>
+  </si>
+  <si>
+    <t>After Food</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\ mmm\,\ yyyy"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,19 +303,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -44,14 +364,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +478,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +686,813 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8908908908</v>
+      </c>
+      <c r="I2" s="9">
+        <v>34121</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.85546875" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" customWidth="1"/>
+    <col min="7" max="7" width="46.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/ClinicAdmin_TestData/Watts Health Center/Doctor-details.xlsx
+++ b/src/test/resources/ClinicAdmin_TestData/Watts Health Center/Doctor-details.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Doctordetails" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="93">
   <si>
     <t>Doctor ID</t>
   </si>
@@ -286,6 +286,18 @@
   </si>
   <si>
     <t>After Food</t>
+  </si>
+  <si>
+    <t>Domestic Consultation Fee</t>
+  </si>
+  <si>
+    <t>Overseas Consultation Fee</t>
+  </si>
+  <si>
+    <t>Domestic Followup Fee</t>
+  </si>
+  <si>
+    <t>Overseas Followup Fee</t>
   </si>
 </sst>
 </file>
@@ -364,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -383,6 +395,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,19 +700,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -715,8 +732,20 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>3</v>
       </c>
@@ -731,6 +760,18 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7000</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -846,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ClinicAdmin_TestData/Watts Health Center/Doctor-details.xlsx
+++ b/src/test/resources/ClinicAdmin_TestData/Watts Health Center/Doctor-details.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="93">
   <si>
     <t>Doctor ID</t>
   </si>
@@ -703,7 +703,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,16 +762,16 @@
         <v>8</v>
       </c>
       <c r="F2" s="2">
-        <v>5000</v>
-      </c>
-      <c r="G2" s="2">
-        <v>7000</v>
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H2" s="2">
-        <v>1000</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I2" s="2">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ClinicAdmin_TestData/Watts Health Center/Doctor-details.xlsx
+++ b/src/test/resources/ClinicAdmin_TestData/Watts Health Center/Doctor-details.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="94">
   <si>
     <t>Doctor ID</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>Overseas Followup Fee</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
@@ -703,7 +706,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,17 +764,17 @@
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>1.1000000000000001</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -888,7 +891,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
